--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/13.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/13.xlsx
@@ -479,13 +479,13 @@
         <v>0.02556760834644579</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.012414098431992</v>
+        <v>-1.800295885472552</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2984972759197759</v>
+        <v>-0.05581784361670592</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04231595358934961</v>
+        <v>0.06894753001887681</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.03518732005619844</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.088104034575073</v>
+        <v>-1.995891957219564</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1325518879521945</v>
+        <v>-0.1588169780611807</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.00435639643676528</v>
+        <v>0.04565953873928246</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.04673177551213666</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.294704905092649</v>
+        <v>-2.136507339481798</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08829055436126472</v>
+        <v>-0.1974084890410606</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.02329809297385297</v>
+        <v>-0.02791580241751251</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.05869408522903461</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.333350699012759</v>
+        <v>-2.206930000660483</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1261526002117539</v>
+        <v>-0.121120830634767</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.03092881056064792</v>
+        <v>0.01704633003100082</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.07099229327251616</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.334305834792547</v>
+        <v>-2.114118981200407</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09462580043064681</v>
+        <v>-0.1473132641770356</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.02609152967335907</v>
+        <v>-0.0160339377137836</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.0848329820141159</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.04562305943957</v>
+        <v>-1.743499462133096</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1698278000323288</v>
+        <v>0.04004948835455382</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.06846210916636991</v>
+        <v>-0.001274467257157343</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.10212211067191</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.831939790023595</v>
+        <v>-1.550577282632948</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1823055572372406</v>
+        <v>0.04590411693065843</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01473541659298698</v>
+        <v>-0.025956127283121</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.1243513147105818</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.366064079503126</v>
+        <v>-1.168686429459333</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2458824687401047</v>
+        <v>0.1202442986160955</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04854331970513184</v>
+        <v>-0.1605107277805101</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.1538739644096114</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7598895355516546</v>
+        <v>-0.7004521556818796</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2729867336941116</v>
+        <v>0.1907157534489196</v>
       </c>
       <c r="G10" t="n">
-        <v>0.005795733227706145</v>
+        <v>-0.08048303578439739</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1942809456902285</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.3288427353562066</v>
+        <v>-0.3665169256382574</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1400020690186721</v>
+        <v>0.1362486171739645</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02536381829981409</v>
+        <v>0.04879758062115122</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.2492530196940964</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3586494828226996</v>
+        <v>0.3811427474604913</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01148080385567479</v>
+        <v>0.01352891748819477</v>
       </c>
       <c r="G12" t="n">
-        <v>0.147807223919017</v>
+        <v>0.1635328087276121</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3226960745639196</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9141676748875378</v>
+        <v>0.7715560222503068</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.07436187187255387</v>
+        <v>0.07128535597285211</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2151808916346377</v>
+        <v>0.2326051055279762</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4190478754939158</v>
       </c>
       <c r="E14" t="n">
-        <v>1.435404665395074</v>
+        <v>1.280220107927359</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3878873263101558</v>
+        <v>-0.3085262776137287</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3802949577198114</v>
+        <v>0.4788563093202673</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5399036883865119</v>
       </c>
       <c r="E15" t="n">
-        <v>2.001151837129655</v>
+        <v>1.973646854291024</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7599871228599343</v>
+        <v>-0.7499222118522378</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4237493662554036</v>
+        <v>0.4954437120451076</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.682654924181885</v>
       </c>
       <c r="E16" t="n">
-        <v>2.688832520797676</v>
+        <v>2.808009801192893</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.002397046230066</v>
+        <v>-1.062970708320623</v>
       </c>
       <c r="G16" t="n">
-        <v>0.533402125362523</v>
+        <v>0.6236752648866495</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.8439228125300369</v>
       </c>
       <c r="E17" t="n">
-        <v>3.154620402740693</v>
+        <v>3.228989250697937</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.340473027748131</v>
+        <v>-1.304411467735402</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6030629956159489</v>
+        <v>0.6493315781540565</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.016432172665066</v>
       </c>
       <c r="E18" t="n">
-        <v>3.691855612599332</v>
+        <v>3.850866812392964</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.581849135571175</v>
+        <v>-1.561269802017019</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7244603872745289</v>
+        <v>0.724106633282015</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.191802069355057</v>
       </c>
       <c r="E19" t="n">
-        <v>3.983265953218726</v>
+        <v>4.082077982217325</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.864114935484085</v>
+        <v>-1.902288040879716</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8901361903029875</v>
+        <v>0.9579740076536135</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.366819551711011</v>
       </c>
       <c r="E20" t="n">
-        <v>4.278483418702381</v>
+        <v>4.470899973961505</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.085929667362465</v>
+        <v>-2.091575093146445</v>
       </c>
       <c r="G20" t="n">
-        <v>1.161866220445752</v>
+        <v>1.150375314895819</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.538015213061032</v>
       </c>
       <c r="E21" t="n">
-        <v>4.60747707142299</v>
+        <v>4.885348392859932</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.413254577111492</v>
+        <v>-2.373544471610456</v>
       </c>
       <c r="G21" t="n">
-        <v>1.293405373117299</v>
+        <v>1.331264369364404</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.699168000837803</v>
       </c>
       <c r="E22" t="n">
-        <v>4.910519819189323</v>
+        <v>5.150234503088906</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.638308597704082</v>
+        <v>-2.71643150742671</v>
       </c>
       <c r="G22" t="n">
-        <v>1.334496948951169</v>
+        <v>1.254109403755775</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.84417442295469</v>
       </c>
       <c r="E23" t="n">
-        <v>5.194314690238842</v>
+        <v>5.352370754252687</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.815361251115922</v>
+        <v>-2.883602835954555</v>
       </c>
       <c r="G23" t="n">
-        <v>1.566229600954149</v>
+        <v>1.523188718637392</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.968997863505018</v>
       </c>
       <c r="E24" t="n">
-        <v>5.325709901630676</v>
+        <v>5.471471184642634</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.965894553502757</v>
+        <v>-2.997804078508523</v>
       </c>
       <c r="G24" t="n">
-        <v>1.656077015845906</v>
+        <v>1.646606167577362</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.071543359742015</v>
       </c>
       <c r="E25" t="n">
-        <v>5.538266037636021</v>
+        <v>5.687033009742993</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.135597052839106</v>
+        <v>-3.163898287121231</v>
       </c>
       <c r="G25" t="n">
-        <v>1.712705710999256</v>
+        <v>1.673412791241116</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.151629216404025</v>
       </c>
       <c r="E26" t="n">
-        <v>5.599788736299597</v>
+        <v>5.602917629371315</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.279751804788509</v>
+        <v>-3.277565239162367</v>
       </c>
       <c r="G26" t="n">
-        <v>1.721301933017343</v>
+        <v>1.762550868385814</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.210163332825859</v>
       </c>
       <c r="E27" t="n">
-        <v>5.736628099652084</v>
+        <v>5.693525005426299</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.23503638525374</v>
+        <v>-3.252384968983162</v>
       </c>
       <c r="G27" t="n">
-        <v>1.727571917574313</v>
+        <v>1.707455513813809</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.244617365897009</v>
       </c>
       <c r="E28" t="n">
-        <v>5.736129184538505</v>
+        <v>5.659370667369761</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.22266536416726</v>
+        <v>-3.251443556418601</v>
       </c>
       <c r="G28" t="n">
-        <v>1.734138323580183</v>
+        <v>1.740494916873251</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.250440564107233</v>
       </c>
       <c r="E29" t="n">
-        <v>5.741431834902152</v>
+        <v>5.553970275220929</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.368814251769291</v>
+        <v>-3.330847604522739</v>
       </c>
       <c r="G29" t="n">
-        <v>1.751844930746856</v>
+        <v>1.72462417094359</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.226297510251686</v>
       </c>
       <c r="E30" t="n">
-        <v>5.698512936720745</v>
+        <v>5.526679984460515</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.295332838396715</v>
+        <v>-3.199087965526549</v>
       </c>
       <c r="G30" t="n">
-        <v>1.717860150638454</v>
+        <v>1.67883620589876</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.171551256010366</v>
       </c>
       <c r="E31" t="n">
-        <v>5.629552865324902</v>
+        <v>5.414025195782441</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.250244757328453</v>
+        <v>-3.190814086586123</v>
       </c>
       <c r="G31" t="n">
-        <v>1.6112746826147</v>
+        <v>1.524154832989361</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.085882908588878</v>
       </c>
       <c r="E32" t="n">
-        <v>5.419940206505544</v>
+        <v>5.076657332170081</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.233814714138214</v>
+        <v>-3.162660453107771</v>
       </c>
       <c r="G32" t="n">
-        <v>1.521787120922225</v>
+        <v>1.492169982780016</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.972010627537635</v>
       </c>
       <c r="E33" t="n">
-        <v>5.229414405344339</v>
+        <v>4.793710250861243</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.272928927138067</v>
+        <v>-3.246112239783147</v>
       </c>
       <c r="G33" t="n">
-        <v>1.424635296005734</v>
+        <v>1.316240803254746</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.834377212768662</v>
       </c>
       <c r="E34" t="n">
-        <v>5.009041525945791</v>
+        <v>4.39974784765343</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.099754759309668</v>
+        <v>-2.905251970375727</v>
       </c>
       <c r="G34" t="n">
-        <v>1.318929943518528</v>
+        <v>1.160648208854286</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.677610204183596</v>
       </c>
       <c r="E35" t="n">
-        <v>4.767075014907655</v>
+        <v>4.162515540908212</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.054053098040598</v>
+        <v>-2.881180840947188</v>
       </c>
       <c r="G35" t="n">
-        <v>1.289134098618032</v>
+        <v>1.125571060813829</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.507875021782689</v>
       </c>
       <c r="E36" t="n">
-        <v>4.554026062995498</v>
+        <v>3.901562199202909</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.008353266533558</v>
+        <v>-2.723258959482228</v>
       </c>
       <c r="G36" t="n">
-        <v>1.250003417759907</v>
+        <v>1.099174303844849</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.333418906652007</v>
       </c>
       <c r="E37" t="n">
-        <v>4.202681257154779</v>
+        <v>3.491718681413931</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.034283434184824</v>
+        <v>-2.77792919934254</v>
       </c>
       <c r="G37" t="n">
-        <v>1.192790418598232</v>
+        <v>1.067346203249429</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.160689210459944</v>
       </c>
       <c r="E38" t="n">
-        <v>3.934636977661603</v>
+        <v>3.315174701846499</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.987173771033481</v>
+        <v>-2.654061019022453</v>
       </c>
       <c r="G38" t="n">
-        <v>1.146405341210865</v>
+        <v>1.039678371590107</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.9939127168362479</v>
       </c>
       <c r="E39" t="n">
-        <v>3.650904318521114</v>
+        <v>3.155556021058825</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.014839163010096</v>
+        <v>-2.589259386800679</v>
       </c>
       <c r="G39" t="n">
-        <v>1.037210022611307</v>
+        <v>0.8676600034441448</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8388981244304682</v>
       </c>
       <c r="E40" t="n">
-        <v>3.400523341826561</v>
+        <v>2.876137940785651</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.046398593547409</v>
+        <v>-2.611404996652725</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9218471861284726</v>
+        <v>0.8070405973028322</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6978818440530199</v>
       </c>
       <c r="E41" t="n">
-        <v>3.086144608362189</v>
+        <v>2.512902121431052</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.927682413183814</v>
+        <v>-2.401708778700652</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9053305342021352</v>
+        <v>0.7940437976020077</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5709641612353742</v>
       </c>
       <c r="E42" t="n">
-        <v>2.734237455657508</v>
+        <v>2.130945396824348</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.977627597561359</v>
+        <v>-2.487383726242775</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8775321795179889</v>
+        <v>0.737227856800896</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4589712186238453</v>
       </c>
       <c r="E43" t="n">
-        <v>2.523784326145591</v>
+        <v>2.02866718861979</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.83180654232308</v>
+        <v>-2.199054704882311</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7975758482410558</v>
+        <v>0.6650998574100241</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3608627889829067</v>
       </c>
       <c r="E44" t="n">
-        <v>2.161290170333917</v>
+        <v>1.593571734972088</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.751607462616801</v>
+        <v>-2.184026259407239</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8182192234662705</v>
+        <v>0.7772606103399314</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2742939805257599</v>
       </c>
       <c r="E45" t="n">
-        <v>1.984721184018738</v>
+        <v>1.471194810706651</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.770140512300467</v>
+        <v>-2.203009430550346</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7341697145276812</v>
+        <v>0.6706330577894825</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1977275348249749</v>
       </c>
       <c r="E46" t="n">
-        <v>1.714441545245281</v>
+        <v>1.314981926977938</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.731173900104387</v>
+        <v>-2.127744609118959</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6591140958884186</v>
+        <v>0.5701492362159166</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1300367962944916</v>
       </c>
       <c r="E47" t="n">
-        <v>1.514680935117434</v>
+        <v>1.082250834827121</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.656489113236588</v>
+        <v>-2.033940028876461</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5491417383466833</v>
+        <v>0.4996094702672968</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.06948306731355421</v>
       </c>
       <c r="E48" t="n">
-        <v>1.349455863469092</v>
+        <v>1.047376790372021</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.650825389832305</v>
+        <v>-1.97138839403121</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4970398744561572</v>
+        <v>0.4990916476127377</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.01430990976058931</v>
       </c>
       <c r="E49" t="n">
-        <v>1.181326959478752</v>
+        <v>0.9428931090003411</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.615896452516298</v>
+        <v>-1.957476713315264</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4213786045848839</v>
+        <v>0.4424373357909641</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.03659269068631946</v>
       </c>
       <c r="E50" t="n">
-        <v>1.047619538801366</v>
+        <v>0.8790405133515868</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.59486150821661</v>
+        <v>-1.921966521594315</v>
       </c>
       <c r="G50" t="n">
-        <v>0.351686018456267</v>
+        <v>0.3696402534176996</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.08490097969861007</v>
       </c>
       <c r="E51" t="n">
-        <v>0.7869729871964676</v>
+        <v>0.6262857253831312</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.500001155282662</v>
+        <v>-1.811970377146187</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2642831656369168</v>
+        <v>0.2942802843607398</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1318771611832989</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6399314806840155</v>
+        <v>0.5785649217136863</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.471214119181507</v>
+        <v>-1.797790331332471</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2090572880400872</v>
+        <v>0.230620423645838</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1779349861748464</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4422159345853045</v>
+        <v>0.3508589660185967</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.45615090822786</v>
+        <v>-1.769423530577596</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1978115706022065</v>
+        <v>0.2108071504616774</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2233976155074912</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2753837219537315</v>
+        <v>0.1591529683478843</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.408023287467024</v>
+        <v>-1.764075746083869</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1162371197698607</v>
+        <v>0.1549146295651621</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2676636605767983</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2231659731346233</v>
+        <v>0.1665214200436776</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.364628041237077</v>
+        <v>-1.750057329249491</v>
       </c>
       <c r="G55" t="n">
-        <v>0.07260339455530467</v>
+        <v>0.1390841384001662</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3105720974786049</v>
       </c>
       <c r="E56" t="n">
-        <v>0.128236699164202</v>
+        <v>0.1176399373263813</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.386439414558264</v>
+        <v>-1.729219999249071</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01179003363878606</v>
+        <v>0.04792783373610849</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3521822409041984</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.04905077370818622</v>
+        <v>-0.03670841889351252</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.378819065622974</v>
+        <v>-1.70158937275103</v>
       </c>
       <c r="G57" t="n">
-        <v>0.03002666187355299</v>
+        <v>0.08838021270074668</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3921141979004454</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.2011527920756169</v>
+        <v>-0.1681377858432445</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.310304846241834</v>
+        <v>-1.60464370102328</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.03730431139469537</v>
+        <v>0.006095204279989441</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.430618652887136</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2919535129851306</v>
+        <v>-0.2056851126245317</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.382039446796203</v>
+        <v>-1.718656783048471</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.07000215887515876</v>
+        <v>0.0353482197781798</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4680039493078801</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4815357668594061</v>
+        <v>-0.4436395654510191</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.440023995613965</v>
+        <v>-1.7290644694765</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.08031286791558467</v>
+        <v>-0.01620227582056606</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.5040808175176456</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5893233885370299</v>
+        <v>-0.4983738469823898</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.415633877671486</v>
+        <v>-1.679249808123779</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1151997207048968</v>
+        <v>0.009397314823903427</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.5388353266346911</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6059040821344259</v>
+        <v>-0.491316454831738</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.393171109067532</v>
+        <v>-1.576970380077867</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.162500898948739</v>
+        <v>-0.06012815303928445</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.5729505243905021</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.8033780996451446</v>
+        <v>-0.561994062853303</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.481697435773452</v>
+        <v>-1.650738456168515</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1810516363320312</v>
+        <v>-0.03866748410722728</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.6068206331016693</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.9122891952093383</v>
+        <v>-0.7282590492555003</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.456432691580518</v>
+        <v>-1.735803483033889</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1980373172587878</v>
+        <v>-0.07205576179376946</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.640001470590245</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.0711710918195</v>
+        <v>-0.7091721915973466</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.451777776975576</v>
+        <v>-1.822766583045304</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2063993297370037</v>
+        <v>-0.05306405176118844</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.6729236971906762</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.226272700075178</v>
+        <v>-0.8004498704760772</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.481019203980908</v>
+        <v>-1.911248995462498</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2746378649722532</v>
+        <v>-0.1831454940153072</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.7055142737898979</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.372476785498455</v>
+        <v>-0.8432205579330347</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.378950808489151</v>
+        <v>-1.869265105678546</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2712790318054016</v>
+        <v>-0.2011454730274959</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.7368115926624447</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.490372012631148</v>
+        <v>-0.9464868376339252</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.426640506204082</v>
+        <v>-1.908436041301336</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3161734630587959</v>
+        <v>-0.22710430695057</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.7670333236848238</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.620066765176208</v>
+        <v>-0.8661419868859035</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.454317486673555</v>
+        <v>-2.039517753465322</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3061646647533603</v>
+        <v>-0.2013833420914277</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.7954654913911862</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.76283577734804</v>
+        <v>-0.8951571333201621</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.392212923684361</v>
+        <v>-1.892445140998356</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3141601149048506</v>
+        <v>-0.19460651345208</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.8203419471172682</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.836211674443538</v>
+        <v>-1.012252144524961</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.397255137919037</v>
+        <v>-2.046242128926469</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.3686851936440967</v>
+        <v>-0.2588305507929737</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.8404449025012665</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.892625677518673</v>
+        <v>-0.9402400300626715</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.423684220683884</v>
+        <v>-2.115027763008762</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4326085400913537</v>
+        <v>-0.3748209956521822</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.8546724316659214</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.919216389262858</v>
+        <v>-0.8116108089398899</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.357950019747362</v>
+        <v>-2.071874655287483</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4687872048740182</v>
+        <v>-0.4236250184435315</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.861339695491553</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.931061658725982</v>
+        <v>-0.8043417743144066</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.421760530869421</v>
+        <v>-2.201054634781368</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.448929407480455</v>
+        <v>-0.3983218492479616</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.8588480688449299</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.89452619034742</v>
+        <v>-0.8231578271920841</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.329943072191768</v>
+        <v>-2.166062875635656</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4880106847637635</v>
+        <v>-0.3942256219829217</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.8464176182810499</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.785909686470096</v>
+        <v>-0.6401370999582642</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.277626516223027</v>
+        <v>-2.207164210200354</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4438646261807391</v>
+        <v>-0.3716280609094061</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.8226533612710053</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.637108558805226</v>
+        <v>-0.5763875809038803</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.164603335456198</v>
+        <v>-2.052614580157133</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4668092321193243</v>
+        <v>-0.356911894820829</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.7862654692359607</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.536137410610938</v>
+        <v>-0.4170281164038245</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.128947982614183</v>
+        <v>-2.082073138923388</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4348835442156239</v>
+        <v>-0.3013786172029183</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.7373104614479717</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.359284811181071</v>
+        <v>-0.1821519332328847</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.062741703073858</v>
+        <v>-2.030986792959647</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4167518223372577</v>
+        <v>-0.3373553982415792</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.6759941935278776</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.210562363283502</v>
+        <v>-0.1493443000306066</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.017940589684006</v>
+        <v>-2.098191512647809</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3844217570248734</v>
+        <v>-0.3124145219279976</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.6028711409907677</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.8997858213360032</v>
+        <v>0.06283429507583102</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.917320145878849</v>
+        <v>-1.916800493462259</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3416864449671672</v>
+        <v>-0.271718784613337</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.5194471276931133</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.6746043273219736</v>
+        <v>0.260222923691805</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.96114599610658</v>
+        <v>-2.049810164885446</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2988193900432835</v>
+        <v>-0.1888098273402665</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.4276239553548393</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.3999082529281833</v>
+        <v>0.4296887738055762</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.899725154196021</v>
+        <v>-2.052248627751085</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2831480881749188</v>
+        <v>-0.209763652189946</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3294986086363804</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.1530904328271932</v>
+        <v>0.6099794960902718</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.74659907901233</v>
+        <v>-1.857500955665429</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2769329964788561</v>
+        <v>-0.2177938678200109</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2280998888978921</v>
       </c>
       <c r="E85" t="n">
-        <v>0.1421599683730067</v>
+        <v>0.8225618586847168</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.62712232756483</v>
+        <v>-1.740734691705397</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2281466613871325</v>
+        <v>-0.2338079451087079</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1277949123986495</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3549875190795043</v>
+        <v>0.9742692583742915</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.476983643855851</v>
+        <v>-1.472611122524244</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2339884816290254</v>
+        <v>-0.2165532891635054</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.03334098401147932</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5986410707095254</v>
+        <v>1.190781339889024</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.400960081102589</v>
+        <v>-1.447667196607279</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1524207399241238</v>
+        <v>-0.1577032629054388</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.04941603658854909</v>
       </c>
       <c r="E88" t="n">
-        <v>0.7914967688559079</v>
+        <v>1.34147566133452</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.279223573547738</v>
+        <v>-1.380300847939779</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.07696745300362158</v>
+        <v>-0.02532302962065652</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1133225608449839</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8843986664968185</v>
+        <v>1.322162523105293</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.051721331358682</v>
+        <v>-1.116285094516524</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.07241683483440432</v>
+        <v>-0.08541729405928918</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1525015552566265</v>
       </c>
       <c r="E90" t="n">
-        <v>1.006810356240831</v>
+        <v>1.428690048664755</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9938813337413097</v>
+        <v>-1.170423483546712</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.03939938891932495</v>
+        <v>-0.02207520201697311</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1638346059321024</v>
       </c>
       <c r="E91" t="n">
-        <v>1.044718146142076</v>
+        <v>1.443778876286825</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7069301231896207</v>
+        <v>-0.7784408828556235</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.05025170752070315</v>
+        <v>-0.06119856382697729</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1463191019180792</v>
       </c>
       <c r="E92" t="n">
-        <v>1.053683980090272</v>
+        <v>1.428963903048615</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4494496698177211</v>
+        <v>-0.6834109719735388</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.08516600674046897</v>
+        <v>-0.1046450433937717</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1040022213666989</v>
       </c>
       <c r="E93" t="n">
-        <v>1.166321690989397</v>
+        <v>1.490244463203523</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2559261085302995</v>
+        <v>-0.4099884119527984</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.06571624627965016</v>
+        <v>-0.05723102982473117</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.04535283270581761</v>
       </c>
       <c r="E94" t="n">
-        <v>1.218166778275012</v>
+        <v>1.559250888570798</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.03178086974606496</v>
+        <v>-0.2155700970325875</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1105710326890558</v>
+        <v>-0.1467161518344992</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.01885538983514614</v>
       </c>
       <c r="E95" t="n">
-        <v>1.216821903182782</v>
+        <v>1.547040276622302</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1169354789447373</v>
+        <v>-0.1726054548004241</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.08111918305024561</v>
+        <v>-0.04880314591342651</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.07755716066879463</v>
       </c>
       <c r="E96" t="n">
-        <v>1.17628779484746</v>
+        <v>1.49012308898885</v>
       </c>
       <c r="F96" t="n">
-        <v>0.20243415941128</v>
+        <v>0.02368287691469644</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1516217438375839</v>
+        <v>-0.1387176520796252</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1210643928695825</v>
       </c>
       <c r="E97" t="n">
-        <v>1.130634012351514</v>
+        <v>1.36812553538435</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2918857357838269</v>
+        <v>0.1632461460095405</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1667916909096616</v>
+        <v>-0.07493458738802031</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1442153089114799</v>
       </c>
       <c r="E98" t="n">
-        <v>1.062291790601218</v>
+        <v>1.234355902797936</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3037419838191324</v>
+        <v>0.3002154224661752</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1935964848113852</v>
+        <v>-0.08503182419158439</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1470022070586862</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9836358102071113</v>
+        <v>1.146069884838654</v>
       </c>
       <c r="F99" t="n">
-        <v>0.335439561389729</v>
+        <v>0.3917620763633517</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1986380891253847</v>
+        <v>-0.1263881055991632</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1341202737983533</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8836874989877304</v>
+        <v>1.064502753054429</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3633891764017088</v>
+        <v>0.3530168653729313</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1684500652297395</v>
+        <v>-0.1462141871175356</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1151132578137347</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9282257365659038</v>
+        <v>0.9869476794818532</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3665016016151541</v>
+        <v>0.3951367674677987</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2349771630460339</v>
+        <v>-0.3020367216131294</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.100845740622177</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9280458099662631</v>
+        <v>0.960832095944855</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3354090653558916</v>
+        <v>0.425418719147663</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2110615633900658</v>
+        <v>-0.2057729412019834</v>
       </c>
     </row>
   </sheetData>
